--- a/代理服务费开票信息登记表 - 测试.xlsx
+++ b/代理服务费开票信息登记表 - 测试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>代理服务费开票信息登记表</t>
+  </si>
+  <si>
+    <t>项目名称</t>
+  </si>
+  <si>
+    <t>项目编号</t>
+  </si>
+  <si>
+    <t>成交人公司名称</t>
+  </si>
+  <si>
+    <t>收件人</t>
+  </si>
+  <si>
+    <t>手机号</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">发票邮寄地址
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（省市名称填写完整）</t>
+    </r>
+  </si>
+  <si>
+    <t>汇款金额
+（元）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">汇款时间
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（xxxx年xx月xx日）</t>
+    </r>
+  </si>
+  <si>
+    <t>纳税人识别号</t>
+  </si>
+  <si>
+    <t>公司地址及电话</t>
+  </si>
+  <si>
+    <t>开户行及账号</t>
+  </si>
+  <si>
+    <t>电子邮箱</t>
+  </si>
   <si>
     <t>数字化与信息中心200年五一端午全员 普惠性慰问品采购</t>
   </si>
@@ -25,25 +105,148 @@
     <t>环县环农人电子商务发展有限公司</t>
   </si>
   <si>
-    <t>91621022MA72F14E63</t>
+    <t>李红霞</t>
   </si>
   <si>
-    <t>环县电子商务公共服务中心310室15213893702</t>
+    <t>甘肃省庆阳市环县环城镇环江花园D区三号楼</t>
   </si>
   <si>
-    <t>环县农村信用合作联社祥汇信用分社550120122000007983</t>
-  </si>
-  <si>
-    <t>1175元</t>
+    <t>请仔细核对电子交易平台开票信息是否准确，若因你单位原因未审核平台开票信息准确性从而导致的开票信息错误，该发票的更换将自原路寄回之日起三个月后开具最新发票
+（在原路寄回前须确保电子交易平台的开票信息准确）</t>
   </si>
   <si>
     <t>1473315649@qq.com</t>
   </si>
   <si>
-    <t>李红霞</t>
-  </si>
-  <si>
-    <t>甘肃省庆阳市环县环城镇环江花园D区三号楼</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注：（不符合以下条件的开票信息登记表一律延期开票，直至开票信息填写正确为止）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1、邮寄地址里地区的省市名称要填完整，例：陕西省西安市未央区xxx！
+2、接收快递的电话必须填写手机号！
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3、在发送该表格前请仔细核对电子交易平台开票信息是否准确，若因你单位原因未审核平台开票信息准确性从而导致的开票信息错误，该发票的更换将自原路寄回之日起三个月后开具最新发票</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（在原路寄回前须确保电子交易平台的开票信息准确）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4、开票信息登记表格填写后，发送至邮箱</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cnpcliuming@163.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ，邮件主题为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项目编号+成交人公司名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>切勿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发送PDF或图片格式！</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -57,7 +260,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,7 +269,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -214,6 +447,29 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -525,10 +781,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -537,162 +793,175 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1021,78 +1290,1165 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:L1024"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col min="2" max="2" width="25.75" customWidth="1"/>
-    <col min="3" max="3" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="7" max="7" width="23.75" customWidth="1"/>
+    <col min="1" max="1" width="25.75" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="33.5" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
     <col min="8" max="8" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
-    <col min="10" max="10" width="16.125" customWidth="1"/>
-    <col min="11" max="11" width="8.875" customWidth="1"/>
-    <col min="12" max="12" width="11.5" customWidth="1"/>
-    <col min="13" max="14" width="33.5" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
+    <col min="10" max="10" width="24.5" customWidth="1"/>
+    <col min="11" max="11" width="23.75" customWidth="1"/>
+    <col min="12" max="12" width="16.125" customWidth="1"/>
+    <col min="13" max="16384" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="48" customHeight="1" spans="1:14">
-      <c r="A1">
-        <v>1111</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" ht="33.75" spans="1:12">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" ht="36" customHeight="1" spans="1:12">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4">
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="57" customHeight="1" spans="1:12">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5">
+        <v>15213893702</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1175</v>
+      </c>
+      <c r="H3" s="7">
         <v>44707</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
+      <c r="I3" s="10" t="s">
+        <v>18</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2">
-        <v>15213893702</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="6">
-        <v>44594</v>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
+    <row r="4" s="1" customFormat="1" ht="78" customHeight="1" spans="1:12">
+      <c r="A4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" hidden="1"/>
+    <row r="6" hidden="1"/>
+    <row r="7" hidden="1"/>
+    <row r="8" hidden="1"/>
+    <row r="9" hidden="1"/>
+    <row r="10" hidden="1"/>
+    <row r="11" hidden="1"/>
+    <row r="12" hidden="1"/>
+    <row r="13" hidden="1"/>
+    <row r="14" hidden="1"/>
+    <row r="15" hidden="1"/>
+    <row r="16" hidden="1"/>
+    <row r="17" hidden="1"/>
+    <row r="18" hidden="1"/>
+    <row r="19" hidden="1"/>
+    <row r="20" hidden="1"/>
+    <row r="21" hidden="1"/>
+    <row r="22" hidden="1"/>
+    <row r="23" hidden="1"/>
+    <row r="24" hidden="1"/>
+    <row r="25" hidden="1"/>
+    <row r="26" hidden="1"/>
+    <row r="27" hidden="1"/>
+    <row r="28" hidden="1"/>
+    <row r="29" hidden="1"/>
+    <row r="30" hidden="1"/>
+    <row r="31" hidden="1"/>
+    <row r="32" hidden="1"/>
+    <row r="33" hidden="1"/>
+    <row r="34" hidden="1"/>
+    <row r="35" hidden="1"/>
+    <row r="36" hidden="1"/>
+    <row r="37" hidden="1"/>
+    <row r="38" hidden="1"/>
+    <row r="39" hidden="1"/>
+    <row r="40" hidden="1"/>
+    <row r="41" hidden="1"/>
+    <row r="42" hidden="1"/>
+    <row r="43" hidden="1"/>
+    <row r="44" hidden="1"/>
+    <row r="45" hidden="1"/>
+    <row r="46" hidden="1"/>
+    <row r="47" hidden="1"/>
+    <row r="48" hidden="1"/>
+    <row r="49" hidden="1"/>
+    <row r="50" hidden="1"/>
+    <row r="51" hidden="1"/>
+    <row r="52" hidden="1"/>
+    <row r="53" hidden="1"/>
+    <row r="54" hidden="1"/>
+    <row r="55" hidden="1"/>
+    <row r="56" hidden="1"/>
+    <row r="57" hidden="1"/>
+    <row r="58" hidden="1"/>
+    <row r="59" hidden="1"/>
+    <row r="60" hidden="1"/>
+    <row r="61" hidden="1"/>
+    <row r="62" hidden="1"/>
+    <row r="63" hidden="1"/>
+    <row r="64" hidden="1"/>
+    <row r="65" hidden="1"/>
+    <row r="66" hidden="1"/>
+    <row r="67" hidden="1"/>
+    <row r="68" hidden="1"/>
+    <row r="69" hidden="1"/>
+    <row r="70" hidden="1"/>
+    <row r="71" hidden="1"/>
+    <row r="72" hidden="1"/>
+    <row r="73" hidden="1"/>
+    <row r="74" hidden="1"/>
+    <row r="75" hidden="1"/>
+    <row r="76" hidden="1"/>
+    <row r="77" hidden="1"/>
+    <row r="78" hidden="1"/>
+    <row r="79" hidden="1"/>
+    <row r="80" hidden="1"/>
+    <row r="81" hidden="1"/>
+    <row r="82" hidden="1"/>
+    <row r="83" hidden="1"/>
+    <row r="84" hidden="1"/>
+    <row r="85" hidden="1"/>
+    <row r="86" hidden="1"/>
+    <row r="87" hidden="1"/>
+    <row r="88" hidden="1"/>
+    <row r="89" hidden="1"/>
+    <row r="90" hidden="1"/>
+    <row r="91" hidden="1"/>
+    <row r="92" hidden="1"/>
+    <row r="93" hidden="1"/>
+    <row r="94" hidden="1"/>
+    <row r="95" hidden="1"/>
+    <row r="96" hidden="1"/>
+    <row r="97" hidden="1"/>
+    <row r="98" hidden="1"/>
+    <row r="99" hidden="1"/>
+    <row r="100" hidden="1"/>
+    <row r="101" hidden="1"/>
+    <row r="102" hidden="1"/>
+    <row r="103" hidden="1"/>
+    <row r="104" hidden="1"/>
+    <row r="105" hidden="1"/>
+    <row r="106" hidden="1"/>
+    <row r="107" hidden="1"/>
+    <row r="108" hidden="1"/>
+    <row r="109" hidden="1"/>
+    <row r="110" hidden="1"/>
+    <row r="111" hidden="1"/>
+    <row r="112" hidden="1"/>
+    <row r="113" hidden="1"/>
+    <row r="114" hidden="1"/>
+    <row r="115" hidden="1"/>
+    <row r="116" hidden="1"/>
+    <row r="117" hidden="1"/>
+    <row r="118" hidden="1"/>
+    <row r="119" hidden="1"/>
+    <row r="120" hidden="1"/>
+    <row r="121" hidden="1"/>
+    <row r="122" hidden="1"/>
+    <row r="123" hidden="1"/>
+    <row r="124" hidden="1"/>
+    <row r="125" hidden="1"/>
+    <row r="126" hidden="1"/>
+    <row r="127" hidden="1"/>
+    <row r="128" hidden="1"/>
+    <row r="129" hidden="1"/>
+    <row r="130" hidden="1"/>
+    <row r="131" hidden="1"/>
+    <row r="132" hidden="1"/>
+    <row r="133" hidden="1"/>
+    <row r="134" hidden="1"/>
+    <row r="135" hidden="1"/>
+    <row r="136" hidden="1"/>
+    <row r="137" hidden="1"/>
+    <row r="138" hidden="1"/>
+    <row r="139" hidden="1"/>
+    <row r="140" hidden="1"/>
+    <row r="141" hidden="1"/>
+    <row r="142" hidden="1"/>
+    <row r="143" hidden="1"/>
+    <row r="144" hidden="1"/>
+    <row r="145" hidden="1"/>
+    <row r="146" hidden="1"/>
+    <row r="147" hidden="1"/>
+    <row r="148" hidden="1"/>
+    <row r="149" hidden="1"/>
+    <row r="150" hidden="1"/>
+    <row r="151" hidden="1"/>
+    <row r="152" hidden="1"/>
+    <row r="153" hidden="1"/>
+    <row r="154" hidden="1"/>
+    <row r="155" hidden="1"/>
+    <row r="156" hidden="1"/>
+    <row r="157" hidden="1"/>
+    <row r="158" hidden="1"/>
+    <row r="159" hidden="1"/>
+    <row r="160" hidden="1"/>
+    <row r="161" hidden="1"/>
+    <row r="162" hidden="1"/>
+    <row r="163" hidden="1"/>
+    <row r="164" hidden="1"/>
+    <row r="165" hidden="1"/>
+    <row r="166" hidden="1"/>
+    <row r="167" hidden="1"/>
+    <row r="168" hidden="1"/>
+    <row r="169" hidden="1"/>
+    <row r="170" hidden="1"/>
+    <row r="171" hidden="1"/>
+    <row r="172" hidden="1"/>
+    <row r="173" hidden="1"/>
+    <row r="174" hidden="1"/>
+    <row r="175" hidden="1"/>
+    <row r="176" hidden="1"/>
+    <row r="177" hidden="1"/>
+    <row r="178" hidden="1"/>
+    <row r="179" hidden="1"/>
+    <row r="180" hidden="1"/>
+    <row r="181" hidden="1"/>
+    <row r="182" hidden="1"/>
+    <row r="183" hidden="1"/>
+    <row r="184" hidden="1"/>
+    <row r="185" hidden="1"/>
+    <row r="186" hidden="1"/>
+    <row r="187" hidden="1"/>
+    <row r="188" hidden="1"/>
+    <row r="189" hidden="1"/>
+    <row r="190" hidden="1"/>
+    <row r="191" hidden="1"/>
+    <row r="192" hidden="1"/>
+    <row r="193" hidden="1"/>
+    <row r="194" hidden="1"/>
+    <row r="195" hidden="1"/>
+    <row r="196" hidden="1"/>
+    <row r="197" hidden="1"/>
+    <row r="198" hidden="1"/>
+    <row r="199" hidden="1"/>
+    <row r="200" hidden="1"/>
+    <row r="201" hidden="1"/>
+    <row r="202" hidden="1"/>
+    <row r="203" hidden="1"/>
+    <row r="204" hidden="1"/>
+    <row r="205" hidden="1"/>
+    <row r="206" hidden="1"/>
+    <row r="207" hidden="1"/>
+    <row r="208" hidden="1"/>
+    <row r="209" hidden="1"/>
+    <row r="210" hidden="1"/>
+    <row r="211" hidden="1"/>
+    <row r="212" hidden="1"/>
+    <row r="213" hidden="1"/>
+    <row r="214" hidden="1"/>
+    <row r="215" hidden="1"/>
+    <row r="216" hidden="1"/>
+    <row r="217" hidden="1"/>
+    <row r="218" hidden="1"/>
+    <row r="219" hidden="1"/>
+    <row r="220" hidden="1"/>
+    <row r="221" hidden="1"/>
+    <row r="222" hidden="1"/>
+    <row r="223" hidden="1"/>
+    <row r="224" hidden="1"/>
+    <row r="225" hidden="1"/>
+    <row r="226" hidden="1"/>
+    <row r="227" hidden="1"/>
+    <row r="228" hidden="1"/>
+    <row r="229" hidden="1"/>
+    <row r="230" hidden="1"/>
+    <row r="231" hidden="1"/>
+    <row r="232" hidden="1"/>
+    <row r="233" hidden="1"/>
+    <row r="234" hidden="1"/>
+    <row r="235" hidden="1"/>
+    <row r="236" hidden="1"/>
+    <row r="237" hidden="1"/>
+    <row r="238" hidden="1"/>
+    <row r="239" hidden="1"/>
+    <row r="240" hidden="1"/>
+    <row r="241" hidden="1"/>
+    <row r="242" hidden="1"/>
+    <row r="243" hidden="1"/>
+    <row r="244" hidden="1"/>
+    <row r="245" hidden="1"/>
+    <row r="246" hidden="1"/>
+    <row r="247" hidden="1"/>
+    <row r="248" hidden="1"/>
+    <row r="249" hidden="1"/>
+    <row r="250" hidden="1"/>
+    <row r="251" hidden="1"/>
+    <row r="252" hidden="1"/>
+    <row r="253" hidden="1"/>
+    <row r="254" hidden="1"/>
+    <row r="255" hidden="1"/>
+    <row r="256" hidden="1"/>
+    <row r="257" hidden="1"/>
+    <row r="258" hidden="1"/>
+    <row r="259" hidden="1"/>
+    <row r="260" hidden="1"/>
+    <row r="261" hidden="1"/>
+    <row r="262" hidden="1"/>
+    <row r="263" hidden="1"/>
+    <row r="264" hidden="1"/>
+    <row r="265" hidden="1"/>
+    <row r="266" hidden="1"/>
+    <row r="267" hidden="1"/>
+    <row r="268" hidden="1"/>
+    <row r="269" hidden="1"/>
+    <row r="270" hidden="1"/>
+    <row r="271" hidden="1"/>
+    <row r="272" hidden="1"/>
+    <row r="273" hidden="1"/>
+    <row r="274" hidden="1"/>
+    <row r="275" hidden="1"/>
+    <row r="276" hidden="1"/>
+    <row r="277" hidden="1"/>
+    <row r="278" hidden="1"/>
+    <row r="279" hidden="1"/>
+    <row r="280" hidden="1"/>
+    <row r="281" hidden="1"/>
+    <row r="282" hidden="1"/>
+    <row r="283" hidden="1"/>
+    <row r="284" hidden="1"/>
+    <row r="285" hidden="1"/>
+    <row r="286" hidden="1"/>
+    <row r="287" hidden="1"/>
+    <row r="288" hidden="1"/>
+    <row r="289" hidden="1"/>
+    <row r="290" hidden="1"/>
+    <row r="291" hidden="1"/>
+    <row r="292" hidden="1"/>
+    <row r="293" hidden="1"/>
+    <row r="294" hidden="1"/>
+    <row r="295" hidden="1"/>
+    <row r="296" hidden="1"/>
+    <row r="297" hidden="1"/>
+    <row r="298" hidden="1"/>
+    <row r="299" hidden="1"/>
+    <row r="300" hidden="1"/>
+    <row r="301" hidden="1"/>
+    <row r="302" hidden="1"/>
+    <row r="303" hidden="1"/>
+    <row r="304" hidden="1"/>
+    <row r="305" hidden="1"/>
+    <row r="306" hidden="1"/>
+    <row r="307" hidden="1"/>
+    <row r="308" hidden="1"/>
+    <row r="309" hidden="1"/>
+    <row r="310" hidden="1"/>
+    <row r="311" hidden="1"/>
+    <row r="312" hidden="1"/>
+    <row r="313" hidden="1"/>
+    <row r="314" hidden="1"/>
+    <row r="315" hidden="1"/>
+    <row r="316" hidden="1"/>
+    <row r="317" hidden="1"/>
+    <row r="318" hidden="1"/>
+    <row r="319" hidden="1"/>
+    <row r="320" hidden="1"/>
+    <row r="321" hidden="1"/>
+    <row r="322" hidden="1"/>
+    <row r="323" hidden="1"/>
+    <row r="324" hidden="1"/>
+    <row r="325" hidden="1"/>
+    <row r="326" hidden="1"/>
+    <row r="327" hidden="1"/>
+    <row r="328" hidden="1"/>
+    <row r="329" hidden="1"/>
+    <row r="330" hidden="1"/>
+    <row r="331" hidden="1"/>
+    <row r="332" hidden="1"/>
+    <row r="333" hidden="1"/>
+    <row r="334" hidden="1"/>
+    <row r="335" hidden="1"/>
+    <row r="336" hidden="1"/>
+    <row r="337" hidden="1"/>
+    <row r="338" hidden="1"/>
+    <row r="339" hidden="1"/>
+    <row r="340" hidden="1"/>
+    <row r="341" hidden="1"/>
+    <row r="342" hidden="1"/>
+    <row r="343" hidden="1"/>
+    <row r="344" hidden="1"/>
+    <row r="345" hidden="1"/>
+    <row r="346" hidden="1"/>
+    <row r="347" hidden="1"/>
+    <row r="348" hidden="1"/>
+    <row r="349" hidden="1"/>
+    <row r="350" hidden="1"/>
+    <row r="351" hidden="1"/>
+    <row r="352" hidden="1"/>
+    <row r="353" hidden="1"/>
+    <row r="354" hidden="1"/>
+    <row r="355" hidden="1"/>
+    <row r="356" hidden="1"/>
+    <row r="357" hidden="1"/>
+    <row r="358" hidden="1"/>
+    <row r="359" hidden="1"/>
+    <row r="360" hidden="1"/>
+    <row r="361" hidden="1"/>
+    <row r="362" hidden="1"/>
+    <row r="363" hidden="1"/>
+    <row r="364" hidden="1"/>
+    <row r="365" hidden="1"/>
+    <row r="366" hidden="1"/>
+    <row r="367" hidden="1"/>
+    <row r="368" hidden="1"/>
+    <row r="369" hidden="1"/>
+    <row r="370" hidden="1"/>
+    <row r="371" hidden="1"/>
+    <row r="372" hidden="1"/>
+    <row r="373" hidden="1"/>
+    <row r="374" hidden="1"/>
+    <row r="375" hidden="1"/>
+    <row r="376" hidden="1"/>
+    <row r="377" hidden="1"/>
+    <row r="378" hidden="1"/>
+    <row r="379" hidden="1"/>
+    <row r="380" hidden="1"/>
+    <row r="381" hidden="1"/>
+    <row r="382" hidden="1"/>
+    <row r="383" hidden="1"/>
+    <row r="384" hidden="1"/>
+    <row r="385" hidden="1"/>
+    <row r="386" hidden="1"/>
+    <row r="387" hidden="1"/>
+    <row r="388" hidden="1"/>
+    <row r="389" hidden="1"/>
+    <row r="390" hidden="1"/>
+    <row r="391" hidden="1"/>
+    <row r="392" hidden="1"/>
+    <row r="393" hidden="1"/>
+    <row r="394" hidden="1"/>
+    <row r="395" hidden="1"/>
+    <row r="396" hidden="1"/>
+    <row r="397" hidden="1"/>
+    <row r="398" hidden="1"/>
+    <row r="399" hidden="1"/>
+    <row r="400" hidden="1"/>
+    <row r="401" hidden="1"/>
+    <row r="402" hidden="1"/>
+    <row r="403" hidden="1"/>
+    <row r="404" hidden="1"/>
+    <row r="405" hidden="1"/>
+    <row r="406" hidden="1"/>
+    <row r="407" hidden="1"/>
+    <row r="408" hidden="1"/>
+    <row r="409" hidden="1"/>
+    <row r="410" hidden="1"/>
+    <row r="411" hidden="1"/>
+    <row r="412" hidden="1"/>
+    <row r="413" hidden="1"/>
+    <row r="414" hidden="1"/>
+    <row r="415" hidden="1"/>
+    <row r="416" hidden="1"/>
+    <row r="417" hidden="1"/>
+    <row r="418" hidden="1"/>
+    <row r="419" hidden="1"/>
+    <row r="420" hidden="1"/>
+    <row r="421" hidden="1"/>
+    <row r="422" hidden="1"/>
+    <row r="423" hidden="1"/>
+    <row r="424" hidden="1"/>
+    <row r="425" hidden="1"/>
+    <row r="426" hidden="1"/>
+    <row r="427" hidden="1"/>
+    <row r="428" hidden="1"/>
+    <row r="429" hidden="1"/>
+    <row r="430" hidden="1"/>
+    <row r="431" hidden="1"/>
+    <row r="432" hidden="1"/>
+    <row r="433" hidden="1"/>
+    <row r="434" hidden="1"/>
+    <row r="435" hidden="1"/>
+    <row r="436" hidden="1"/>
+    <row r="437" hidden="1"/>
+    <row r="438" hidden="1"/>
+    <row r="439" hidden="1"/>
+    <row r="440" hidden="1"/>
+    <row r="441" hidden="1"/>
+    <row r="442" hidden="1"/>
+    <row r="443" hidden="1"/>
+    <row r="444" hidden="1"/>
+    <row r="445" hidden="1"/>
+    <row r="446" hidden="1"/>
+    <row r="447" hidden="1"/>
+    <row r="448" hidden="1"/>
+    <row r="449" hidden="1"/>
+    <row r="450" hidden="1"/>
+    <row r="451" hidden="1"/>
+    <row r="452" hidden="1"/>
+    <row r="453" hidden="1"/>
+    <row r="454" hidden="1"/>
+    <row r="455" hidden="1"/>
+    <row r="456" hidden="1"/>
+    <row r="457" hidden="1"/>
+    <row r="458" hidden="1"/>
+    <row r="459" hidden="1"/>
+    <row r="460" hidden="1"/>
+    <row r="461" hidden="1"/>
+    <row r="462" hidden="1"/>
+    <row r="463" hidden="1"/>
+    <row r="464" hidden="1"/>
+    <row r="465" hidden="1"/>
+    <row r="466" hidden="1"/>
+    <row r="467" hidden="1"/>
+    <row r="468" hidden="1"/>
+    <row r="469" hidden="1"/>
+    <row r="470" hidden="1"/>
+    <row r="471" hidden="1"/>
+    <row r="472" hidden="1"/>
+    <row r="473" hidden="1"/>
+    <row r="474" hidden="1"/>
+    <row r="475" hidden="1"/>
+    <row r="476" hidden="1"/>
+    <row r="477" hidden="1"/>
+    <row r="478" hidden="1"/>
+    <row r="479" hidden="1"/>
+    <row r="480" hidden="1"/>
+    <row r="481" hidden="1"/>
+    <row r="482" hidden="1"/>
+    <row r="483" hidden="1"/>
+    <row r="484" hidden="1"/>
+    <row r="485" hidden="1"/>
+    <row r="486" hidden="1"/>
+    <row r="487" hidden="1"/>
+    <row r="488" hidden="1"/>
+    <row r="489" hidden="1"/>
+    <row r="490" hidden="1"/>
+    <row r="491" hidden="1"/>
+    <row r="492" hidden="1"/>
+    <row r="493" hidden="1"/>
+    <row r="494" hidden="1"/>
+    <row r="495" hidden="1"/>
+    <row r="496" hidden="1"/>
+    <row r="497" hidden="1"/>
+    <row r="498" hidden="1"/>
+    <row r="499" hidden="1"/>
+    <row r="500" hidden="1"/>
+    <row r="501" hidden="1"/>
+    <row r="502" hidden="1"/>
+    <row r="503" hidden="1"/>
+    <row r="504" hidden="1"/>
+    <row r="505" hidden="1"/>
+    <row r="506" hidden="1"/>
+    <row r="507" hidden="1"/>
+    <row r="508" hidden="1"/>
+    <row r="509" hidden="1"/>
+    <row r="510" hidden="1"/>
+    <row r="511" hidden="1"/>
+    <row r="512" hidden="1"/>
+    <row r="513" hidden="1"/>
+    <row r="514" hidden="1"/>
+    <row r="515" hidden="1"/>
+    <row r="516" hidden="1"/>
+    <row r="517" hidden="1"/>
+    <row r="518" hidden="1"/>
+    <row r="519" hidden="1"/>
+    <row r="520" hidden="1"/>
+    <row r="521" hidden="1"/>
+    <row r="522" hidden="1"/>
+    <row r="523" hidden="1"/>
+    <row r="524" hidden="1"/>
+    <row r="525" hidden="1"/>
+    <row r="526" hidden="1"/>
+    <row r="527" hidden="1"/>
+    <row r="528" hidden="1"/>
+    <row r="529" hidden="1"/>
+    <row r="530" hidden="1"/>
+    <row r="531" hidden="1"/>
+    <row r="532" hidden="1"/>
+    <row r="533" hidden="1"/>
+    <row r="534" hidden="1"/>
+    <row r="535" hidden="1"/>
+    <row r="536" hidden="1"/>
+    <row r="537" hidden="1"/>
+    <row r="538" hidden="1"/>
+    <row r="539" hidden="1"/>
+    <row r="540" hidden="1"/>
+    <row r="541" hidden="1"/>
+    <row r="542" hidden="1"/>
+    <row r="543" hidden="1"/>
+    <row r="544" hidden="1"/>
+    <row r="545" hidden="1"/>
+    <row r="546" hidden="1"/>
+    <row r="547" hidden="1"/>
+    <row r="548" hidden="1"/>
+    <row r="549" hidden="1"/>
+    <row r="550" hidden="1"/>
+    <row r="551" hidden="1"/>
+    <row r="552" hidden="1"/>
+    <row r="553" hidden="1"/>
+    <row r="554" hidden="1"/>
+    <row r="555" hidden="1"/>
+    <row r="556" hidden="1"/>
+    <row r="557" hidden="1"/>
+    <row r="558" hidden="1"/>
+    <row r="559" hidden="1"/>
+    <row r="560" hidden="1"/>
+    <row r="561" hidden="1"/>
+    <row r="562" hidden="1"/>
+    <row r="563" hidden="1"/>
+    <row r="564" hidden="1"/>
+    <row r="565" hidden="1"/>
+    <row r="566" hidden="1"/>
+    <row r="567" hidden="1"/>
+    <row r="568" hidden="1"/>
+    <row r="569" hidden="1"/>
+    <row r="570" hidden="1"/>
+    <row r="571" hidden="1"/>
+    <row r="572" hidden="1"/>
+    <row r="573" hidden="1"/>
+    <row r="574" hidden="1"/>
+    <row r="575" hidden="1"/>
+    <row r="576" hidden="1"/>
+    <row r="577" hidden="1"/>
+    <row r="578" hidden="1"/>
+    <row r="579" hidden="1"/>
+    <row r="580" hidden="1"/>
+    <row r="581" hidden="1"/>
+    <row r="582" hidden="1"/>
+    <row r="583" hidden="1"/>
+    <row r="584" hidden="1"/>
+    <row r="585" hidden="1"/>
+    <row r="586" hidden="1"/>
+    <row r="587" hidden="1"/>
+    <row r="588" hidden="1"/>
+    <row r="589" hidden="1"/>
+    <row r="590" hidden="1"/>
+    <row r="591" hidden="1"/>
+    <row r="592" hidden="1"/>
+    <row r="593" hidden="1"/>
+    <row r="594" hidden="1"/>
+    <row r="595" hidden="1"/>
+    <row r="596" hidden="1"/>
+    <row r="597" hidden="1"/>
+    <row r="598" hidden="1"/>
+    <row r="599" hidden="1"/>
+    <row r="600" hidden="1"/>
+    <row r="601" hidden="1"/>
+    <row r="602" hidden="1"/>
+    <row r="603" hidden="1"/>
+    <row r="604" hidden="1"/>
+    <row r="605" hidden="1"/>
+    <row r="606" hidden="1"/>
+    <row r="607" hidden="1"/>
+    <row r="608" hidden="1"/>
+    <row r="609" hidden="1"/>
+    <row r="610" hidden="1"/>
+    <row r="611" hidden="1"/>
+    <row r="612" hidden="1"/>
+    <row r="613" hidden="1"/>
+    <row r="614" hidden="1"/>
+    <row r="615" hidden="1"/>
+    <row r="616" hidden="1"/>
+    <row r="617" hidden="1"/>
+    <row r="618" hidden="1"/>
+    <row r="619" hidden="1"/>
+    <row r="620" hidden="1"/>
+    <row r="621" hidden="1"/>
+    <row r="622" hidden="1"/>
+    <row r="623" hidden="1"/>
+    <row r="624" hidden="1"/>
+    <row r="625" hidden="1"/>
+    <row r="626" hidden="1"/>
+    <row r="627" hidden="1"/>
+    <row r="628" hidden="1"/>
+    <row r="629" hidden="1"/>
+    <row r="630" hidden="1"/>
+    <row r="631" hidden="1"/>
+    <row r="632" hidden="1"/>
+    <row r="633" hidden="1"/>
+    <row r="634" hidden="1"/>
+    <row r="635" hidden="1"/>
+    <row r="636" hidden="1"/>
+    <row r="637" hidden="1"/>
+    <row r="638" hidden="1"/>
+    <row r="639" hidden="1"/>
+    <row r="640" hidden="1"/>
+    <row r="641" hidden="1"/>
+    <row r="642" hidden="1"/>
+    <row r="643" hidden="1"/>
+    <row r="644" hidden="1"/>
+    <row r="645" hidden="1"/>
+    <row r="646" hidden="1"/>
+    <row r="647" hidden="1"/>
+    <row r="648" hidden="1"/>
+    <row r="649" hidden="1"/>
+    <row r="650" hidden="1"/>
+    <row r="651" hidden="1"/>
+    <row r="652" hidden="1"/>
+    <row r="653" hidden="1"/>
+    <row r="654" hidden="1"/>
+    <row r="655" hidden="1"/>
+    <row r="656" hidden="1"/>
+    <row r="657" hidden="1"/>
+    <row r="658" hidden="1"/>
+    <row r="659" hidden="1"/>
+    <row r="660" hidden="1"/>
+    <row r="661" hidden="1"/>
+    <row r="662" hidden="1"/>
+    <row r="663" hidden="1"/>
+    <row r="664" hidden="1"/>
+    <row r="665" hidden="1"/>
+    <row r="666" hidden="1"/>
+    <row r="667" hidden="1"/>
+    <row r="668" hidden="1"/>
+    <row r="669" hidden="1"/>
+    <row r="670" hidden="1"/>
+    <row r="671" hidden="1"/>
+    <row r="672" hidden="1"/>
+    <row r="673" hidden="1"/>
+    <row r="674" hidden="1"/>
+    <row r="675" hidden="1"/>
+    <row r="676" hidden="1"/>
+    <row r="677" hidden="1"/>
+    <row r="678" hidden="1"/>
+    <row r="679" hidden="1"/>
+    <row r="680" hidden="1"/>
+    <row r="681" hidden="1"/>
+    <row r="682" hidden="1"/>
+    <row r="683" hidden="1"/>
+    <row r="684" hidden="1"/>
+    <row r="685" hidden="1"/>
+    <row r="686" hidden="1"/>
+    <row r="687" hidden="1"/>
+    <row r="688" hidden="1"/>
+    <row r="689" hidden="1"/>
+    <row r="690" hidden="1"/>
+    <row r="691" hidden="1"/>
+    <row r="692" hidden="1"/>
+    <row r="693" hidden="1"/>
+    <row r="694" hidden="1"/>
+    <row r="695" hidden="1"/>
+    <row r="696" hidden="1"/>
+    <row r="697" hidden="1"/>
+    <row r="698" hidden="1"/>
+    <row r="699" hidden="1"/>
+    <row r="700" hidden="1"/>
+    <row r="701" hidden="1"/>
+    <row r="702" hidden="1"/>
+    <row r="703" hidden="1"/>
+    <row r="704" hidden="1"/>
+    <row r="705" hidden="1"/>
+    <row r="706" hidden="1"/>
+    <row r="707" hidden="1"/>
+    <row r="708" hidden="1"/>
+    <row r="709" hidden="1"/>
+    <row r="710" hidden="1"/>
+    <row r="711" hidden="1"/>
+    <row r="712" hidden="1"/>
+    <row r="713" hidden="1"/>
+    <row r="714" hidden="1"/>
+    <row r="715" hidden="1"/>
+    <row r="716" hidden="1"/>
+    <row r="717" hidden="1"/>
+    <row r="718" hidden="1"/>
+    <row r="719" hidden="1"/>
+    <row r="720" hidden="1"/>
+    <row r="721" hidden="1"/>
+    <row r="722" hidden="1"/>
+    <row r="723" hidden="1"/>
+    <row r="724" hidden="1"/>
+    <row r="725" hidden="1"/>
+    <row r="726" hidden="1"/>
+    <row r="727" hidden="1"/>
+    <row r="728" hidden="1"/>
+    <row r="729" hidden="1"/>
+    <row r="730" hidden="1"/>
+    <row r="731" hidden="1"/>
+    <row r="732" hidden="1"/>
+    <row r="733" hidden="1"/>
+    <row r="734" hidden="1"/>
+    <row r="735" hidden="1"/>
+    <row r="736" hidden="1"/>
+    <row r="737" hidden="1"/>
+    <row r="738" hidden="1"/>
+    <row r="739" hidden="1"/>
+    <row r="740" hidden="1"/>
+    <row r="741" hidden="1"/>
+    <row r="742" hidden="1"/>
+    <row r="743" hidden="1"/>
+    <row r="744" hidden="1"/>
+    <row r="745" hidden="1"/>
+    <row r="746" hidden="1"/>
+    <row r="747" hidden="1"/>
+    <row r="748" hidden="1"/>
+    <row r="749" hidden="1"/>
+    <row r="750" hidden="1"/>
+    <row r="751" hidden="1"/>
+    <row r="752" hidden="1"/>
+    <row r="753" hidden="1"/>
+    <row r="754" hidden="1"/>
+    <row r="755" hidden="1"/>
+    <row r="756" hidden="1"/>
+    <row r="757" hidden="1"/>
+    <row r="758" hidden="1"/>
+    <row r="759" hidden="1"/>
+    <row r="760" hidden="1"/>
+    <row r="761" hidden="1"/>
+    <row r="762" hidden="1"/>
+    <row r="763" hidden="1"/>
+    <row r="764" hidden="1"/>
+    <row r="765" hidden="1"/>
+    <row r="766" hidden="1"/>
+    <row r="767" hidden="1"/>
+    <row r="768" hidden="1"/>
+    <row r="769" hidden="1"/>
+    <row r="770" hidden="1"/>
+    <row r="771" hidden="1"/>
+    <row r="772" hidden="1"/>
+    <row r="773" hidden="1"/>
+    <row r="774" hidden="1"/>
+    <row r="775" hidden="1"/>
+    <row r="776" hidden="1"/>
+    <row r="777" hidden="1"/>
+    <row r="778" hidden="1"/>
+    <row r="779" hidden="1"/>
+    <row r="780" hidden="1"/>
+    <row r="781" hidden="1"/>
+    <row r="782" hidden="1"/>
+    <row r="783" hidden="1"/>
+    <row r="784" hidden="1"/>
+    <row r="785" hidden="1"/>
+    <row r="786" hidden="1"/>
+    <row r="787" hidden="1"/>
+    <row r="788" hidden="1"/>
+    <row r="789" hidden="1"/>
+    <row r="790" hidden="1"/>
+    <row r="791" hidden="1"/>
+    <row r="792" hidden="1"/>
+    <row r="793" hidden="1"/>
+    <row r="794" hidden="1"/>
+    <row r="795" hidden="1"/>
+    <row r="796" hidden="1"/>
+    <row r="797" hidden="1"/>
+    <row r="798" hidden="1"/>
+    <row r="799" hidden="1"/>
+    <row r="800" hidden="1"/>
+    <row r="801" hidden="1"/>
+    <row r="802" hidden="1"/>
+    <row r="803" hidden="1"/>
+    <row r="804" hidden="1"/>
+    <row r="805" hidden="1"/>
+    <row r="806" hidden="1"/>
+    <row r="807" hidden="1"/>
+    <row r="808" hidden="1"/>
+    <row r="809" hidden="1"/>
+    <row r="810" hidden="1"/>
+    <row r="811" hidden="1"/>
+    <row r="812" hidden="1"/>
+    <row r="813" hidden="1"/>
+    <row r="814" hidden="1"/>
+    <row r="815" hidden="1"/>
+    <row r="816" hidden="1"/>
+    <row r="817" hidden="1"/>
+    <row r="818" hidden="1"/>
+    <row r="819" hidden="1"/>
+    <row r="820" hidden="1"/>
+    <row r="821" hidden="1"/>
+    <row r="822" hidden="1"/>
+    <row r="823" hidden="1"/>
+    <row r="824" hidden="1"/>
+    <row r="825" hidden="1"/>
+    <row r="826" hidden="1"/>
+    <row r="827" hidden="1"/>
+    <row r="828" hidden="1"/>
+    <row r="829" hidden="1"/>
+    <row r="830" hidden="1"/>
+    <row r="831" hidden="1"/>
+    <row r="832" hidden="1"/>
+    <row r="833" hidden="1"/>
+    <row r="834" hidden="1"/>
+    <row r="835" hidden="1"/>
+    <row r="836" hidden="1"/>
+    <row r="837" hidden="1"/>
+    <row r="838" hidden="1"/>
+    <row r="839" hidden="1"/>
+    <row r="840" hidden="1"/>
+    <row r="841" hidden="1"/>
+    <row r="842" hidden="1"/>
+    <row r="843" hidden="1"/>
+    <row r="844" hidden="1"/>
+    <row r="845" hidden="1"/>
+    <row r="846" hidden="1"/>
+    <row r="847" hidden="1"/>
+    <row r="848" hidden="1"/>
+    <row r="849" hidden="1"/>
+    <row r="850" hidden="1"/>
+    <row r="851" hidden="1"/>
+    <row r="852" hidden="1"/>
+    <row r="853" hidden="1"/>
+    <row r="854" hidden="1"/>
+    <row r="855" hidden="1"/>
+    <row r="856" hidden="1"/>
+    <row r="857" hidden="1"/>
+    <row r="858" hidden="1"/>
+    <row r="859" hidden="1"/>
+    <row r="860" hidden="1"/>
+    <row r="861" hidden="1"/>
+    <row r="862" hidden="1"/>
+    <row r="863" hidden="1"/>
+    <row r="864" hidden="1"/>
+    <row r="865" hidden="1"/>
+    <row r="866" hidden="1"/>
+    <row r="867" hidden="1"/>
+    <row r="868" hidden="1"/>
+    <row r="869" hidden="1"/>
+    <row r="870" hidden="1"/>
+    <row r="871" hidden="1"/>
+    <row r="872" hidden="1"/>
+    <row r="873" hidden="1"/>
+    <row r="874" hidden="1"/>
+    <row r="875" hidden="1"/>
+    <row r="876" hidden="1"/>
+    <row r="877" hidden="1"/>
+    <row r="878" hidden="1"/>
+    <row r="879" hidden="1"/>
+    <row r="880" hidden="1"/>
+    <row r="881" hidden="1"/>
+    <row r="882" hidden="1"/>
+    <row r="883" hidden="1"/>
+    <row r="884" hidden="1"/>
+    <row r="885" hidden="1"/>
+    <row r="886" hidden="1"/>
+    <row r="887" hidden="1"/>
+    <row r="888" hidden="1"/>
+    <row r="889" hidden="1"/>
+    <row r="890" hidden="1"/>
+    <row r="891" hidden="1"/>
+    <row r="892" hidden="1"/>
+    <row r="893" hidden="1"/>
+    <row r="894" hidden="1"/>
+    <row r="895" hidden="1"/>
+    <row r="896" hidden="1"/>
+    <row r="897" hidden="1"/>
+    <row r="898" hidden="1"/>
+    <row r="899" hidden="1"/>
+    <row r="900" hidden="1"/>
+    <row r="901" hidden="1"/>
+    <row r="902" hidden="1"/>
+    <row r="903" hidden="1"/>
+    <row r="904" hidden="1"/>
+    <row r="905" hidden="1"/>
+    <row r="906" hidden="1"/>
+    <row r="907" hidden="1"/>
+    <row r="908" hidden="1"/>
+    <row r="909" hidden="1"/>
+    <row r="910" hidden="1"/>
+    <row r="911" hidden="1"/>
+    <row r="912" hidden="1"/>
+    <row r="913" hidden="1"/>
+    <row r="914" hidden="1"/>
+    <row r="915" hidden="1"/>
+    <row r="916" hidden="1"/>
+    <row r="917" hidden="1"/>
+    <row r="918" hidden="1"/>
+    <row r="919" hidden="1"/>
+    <row r="920" hidden="1"/>
+    <row r="921" hidden="1"/>
+    <row r="922" hidden="1"/>
+    <row r="923" hidden="1"/>
+    <row r="924" hidden="1"/>
+    <row r="925" hidden="1"/>
+    <row r="926" hidden="1"/>
+    <row r="927" hidden="1"/>
+    <row r="928" hidden="1"/>
+    <row r="929" hidden="1"/>
+    <row r="930" hidden="1"/>
+    <row r="931" hidden="1"/>
+    <row r="932" hidden="1"/>
+    <row r="933" hidden="1"/>
+    <row r="934" hidden="1"/>
+    <row r="935" hidden="1"/>
+    <row r="936" hidden="1"/>
+    <row r="937" hidden="1"/>
+    <row r="938" hidden="1"/>
+    <row r="939" hidden="1"/>
+    <row r="940" hidden="1"/>
+    <row r="941" hidden="1"/>
+    <row r="942" hidden="1"/>
+    <row r="943" hidden="1"/>
+    <row r="944" hidden="1"/>
+    <row r="945" hidden="1"/>
+    <row r="946" hidden="1"/>
+    <row r="947" hidden="1"/>
+    <row r="948" hidden="1"/>
+    <row r="949" hidden="1"/>
+    <row r="950" hidden="1"/>
+    <row r="951" hidden="1"/>
+    <row r="952" hidden="1"/>
+    <row r="953" hidden="1"/>
+    <row r="954" hidden="1"/>
+    <row r="955" hidden="1"/>
+    <row r="956" hidden="1"/>
+    <row r="957" hidden="1"/>
+    <row r="958" hidden="1"/>
+    <row r="959" hidden="1"/>
+    <row r="960" hidden="1"/>
+    <row r="961" hidden="1"/>
+    <row r="962" hidden="1"/>
+    <row r="963" hidden="1"/>
+    <row r="964" hidden="1"/>
+    <row r="965" hidden="1"/>
+    <row r="966" hidden="1"/>
+    <row r="967" hidden="1"/>
+    <row r="968" hidden="1"/>
+    <row r="969" hidden="1"/>
+    <row r="970" hidden="1"/>
+    <row r="971" hidden="1"/>
+    <row r="972" hidden="1"/>
+    <row r="973" hidden="1"/>
+    <row r="974" hidden="1"/>
+    <row r="975" hidden="1"/>
+    <row r="976" hidden="1"/>
+    <row r="977" hidden="1"/>
+    <row r="978" hidden="1"/>
+    <row r="979" hidden="1"/>
+    <row r="980" hidden="1"/>
+    <row r="981" hidden="1"/>
+    <row r="982" hidden="1"/>
+    <row r="983" hidden="1"/>
+    <row r="984" hidden="1"/>
+    <row r="985" hidden="1"/>
+    <row r="986" hidden="1"/>
+    <row r="987" hidden="1"/>
+    <row r="988" hidden="1"/>
+    <row r="989" hidden="1"/>
+    <row r="990" hidden="1"/>
+    <row r="991" hidden="1"/>
+    <row r="992" hidden="1"/>
+    <row r="993" hidden="1"/>
+    <row r="994" hidden="1"/>
+    <row r="995" hidden="1"/>
+    <row r="996" hidden="1"/>
+    <row r="997" hidden="1"/>
+    <row r="998" hidden="1"/>
+    <row r="999" hidden="1"/>
+    <row r="1000" hidden="1"/>
+    <row r="1001" hidden="1"/>
+    <row r="1002" hidden="1"/>
+    <row r="1003" hidden="1"/>
+    <row r="1004" hidden="1"/>
+    <row r="1005" hidden="1"/>
+    <row r="1006" hidden="1"/>
+    <row r="1007" hidden="1"/>
+    <row r="1008" hidden="1"/>
+    <row r="1009" hidden="1"/>
+    <row r="1010" hidden="1"/>
+    <row r="1011" hidden="1"/>
+    <row r="1012" hidden="1"/>
+    <row r="1013" hidden="1"/>
+    <row r="1014" hidden="1"/>
+    <row r="1015" hidden="1"/>
+    <row r="1016" hidden="1"/>
+    <row r="1017" hidden="1"/>
+    <row r="1018" hidden="1"/>
+    <row r="1019" hidden="1"/>
+    <row r="1020" hidden="1"/>
+    <row r="1021" hidden="1"/>
+    <row r="1022" hidden="1"/>
+    <row r="1023" hidden="1"/>
+    <row r="1024" hidden="1"/>
   </sheetData>
+  <sheetProtection password="CC47" sheet="1" objects="1"/>
   <protectedRanges>
-    <protectedRange password="CC47" sqref="B1:M1" name="可填写区域" securityDescriptor="O:WDG:WDD:"/>
+    <protectedRange password="CC47" sqref="A3:C3 D3 E3 I3:L3 F3 G3 H3" name="可填写区域" securityDescriptor="O:WDG:WDD:"/>
   </protectedRanges>
+  <mergeCells count="3">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="A4:L4"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J1" r:id="rId1" display="1473315649@qq.com"/>
+    <hyperlink ref="L3" r:id="rId1" display="1473315649@qq.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="59" orientation="landscape"/>
